--- a/results/cu_jgr/15x15/all/cu_jgr_all_15x15_True_2_0.8.xlsx
+++ b/results/cu_jgr/15x15/all/cu_jgr_all_15x15_True_2_0.8.xlsx
@@ -483,16 +483,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01145</v>
+        <v>0.01405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00572</v>
+        <v>0.00702</v>
       </c>
       <c r="F2" t="n">
-        <v>1.09387</v>
+        <v>1.49317</v>
       </c>
       <c r="G2" t="n">
         <v>0.85</v>
@@ -509,16 +509,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0115</v>
+        <v>0.01133</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00575</v>
+        <v>0.00567</v>
       </c>
       <c r="F3" t="n">
-        <v>0.79218</v>
+        <v>1.02232</v>
       </c>
       <c r="G3" t="n">
         <v>0.85</v>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01011</v>
+        <v>0.00676</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00505</v>
+        <v>0.00338</v>
       </c>
       <c r="F4" t="n">
-        <v>0.98447</v>
+        <v>0.75573</v>
       </c>
       <c r="G4" t="n">
         <v>0.85</v>
@@ -561,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01374</v>
+        <v>0.008240000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00687</v>
+        <v>0.00412</v>
       </c>
       <c r="F5" t="n">
-        <v>1.11466</v>
+        <v>0.96185</v>
       </c>
       <c r="G5" t="n">
         <v>0.85</v>
@@ -587,16 +587,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01606</v>
+        <v>0.01883</v>
       </c>
       <c r="E6" t="n">
-        <v>0.008030000000000001</v>
+        <v>0.00942</v>
       </c>
       <c r="F6" t="n">
-        <v>0.87384</v>
+        <v>1.79662</v>
       </c>
       <c r="G6" t="n">
         <v>0.85</v>
@@ -613,16 +613,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01151</v>
+        <v>0.01462</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00576</v>
+        <v>0.00731</v>
       </c>
       <c r="F7" t="n">
-        <v>0.89388</v>
+        <v>1.36672</v>
       </c>
       <c r="G7" t="n">
         <v>0.85</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01546</v>
+        <v>0.0157</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00773</v>
+        <v>0.007849999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>1.27195</v>
+        <v>1.5874</v>
       </c>
       <c r="G8" t="n">
         <v>0.85</v>
@@ -665,16 +665,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01948</v>
+        <v>0.02194</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00974</v>
+        <v>0.01097</v>
       </c>
       <c r="F9" t="n">
-        <v>1.47633</v>
+        <v>1.83581</v>
       </c>
       <c r="G9" t="n">
         <v>0.85</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D10" t="n">
-        <v>0.008410000000000001</v>
+        <v>0.0224</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0042</v>
+        <v>0.0112</v>
       </c>
       <c r="F10" t="n">
-        <v>0.79889</v>
+        <v>2.27145</v>
       </c>
       <c r="G10" t="n">
         <v>0.85</v>
@@ -717,16 +717,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01721</v>
+        <v>0.03594</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0086</v>
+        <v>0.01797</v>
       </c>
       <c r="F11" t="n">
-        <v>1.23388</v>
+        <v>2.9681</v>
       </c>
       <c r="G11" t="n">
         <v>0.85</v>
@@ -743,16 +743,16 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00726</v>
+        <v>0.02114</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00363</v>
+        <v>0.01057</v>
       </c>
       <c r="F12" t="n">
-        <v>0.90857</v>
+        <v>1.74201</v>
       </c>
       <c r="G12" t="n">
         <v>0.85</v>
@@ -769,16 +769,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01296</v>
+        <v>0.0275</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00648</v>
+        <v>0.01375</v>
       </c>
       <c r="F13" t="n">
-        <v>1.04284</v>
+        <v>2.28501</v>
       </c>
       <c r="G13" t="n">
         <v>0.85</v>
@@ -795,16 +795,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01541</v>
+        <v>0.02269</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0077</v>
+        <v>0.01135</v>
       </c>
       <c r="F14" t="n">
-        <v>1.25738</v>
+        <v>2.03605</v>
       </c>
       <c r="G14" t="n">
         <v>0.85</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02214</v>
+        <v>0.01236</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01107</v>
+        <v>0.00618</v>
       </c>
       <c r="F15" t="n">
-        <v>1.51273</v>
+        <v>1.08709</v>
       </c>
       <c r="G15" t="n">
         <v>0.85</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02561</v>
+        <v>0.01375</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01281</v>
+        <v>0.00688</v>
       </c>
       <c r="F16" t="n">
-        <v>1.70894</v>
+        <v>1.31108</v>
       </c>
       <c r="G16" t="n">
         <v>0.85</v>
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02955</v>
+        <v>0.01037</v>
       </c>
       <c r="E17" t="n">
-        <v>0.01477</v>
+        <v>0.00518</v>
       </c>
       <c r="F17" t="n">
-        <v>2.53252</v>
+        <v>1.00749</v>
       </c>
       <c r="G17" t="n">
         <v>0.85</v>
@@ -899,16 +899,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0209</v>
+        <v>0.01693</v>
       </c>
       <c r="E18" t="n">
-        <v>0.01045</v>
+        <v>0.00847</v>
       </c>
       <c r="F18" t="n">
-        <v>1.9819</v>
+        <v>2.11228</v>
       </c>
       <c r="G18" t="n">
         <v>0.85</v>
@@ -925,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D19" t="n">
-        <v>0.02278</v>
+        <v>0.01121</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01139</v>
+        <v>0.00561</v>
       </c>
       <c r="F19" t="n">
-        <v>1.89425</v>
+        <v>1.21777</v>
       </c>
       <c r="G19" t="n">
         <v>0.85</v>
@@ -951,16 +951,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01619</v>
+        <v>0.01855</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00809</v>
+        <v>0.00928</v>
       </c>
       <c r="F20" t="n">
-        <v>1.86127</v>
+        <v>1.23025</v>
       </c>
       <c r="G20" t="n">
         <v>0.85</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01891</v>
+        <v>0.02598</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00946</v>
+        <v>0.01299</v>
       </c>
       <c r="F21" t="n">
-        <v>2.01242</v>
+        <v>2.02082</v>
       </c>
       <c r="G21" t="n">
         <v>0.85</v>
@@ -1003,16 +1003,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04169</v>
+        <v>0.04913</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02084</v>
+        <v>0.02457</v>
       </c>
       <c r="F22" t="n">
-        <v>2.46865</v>
+        <v>3.03297</v>
       </c>
       <c r="G22" t="n">
         <v>0.15</v>
@@ -1029,16 +1029,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" t="n">
-        <v>0.02978</v>
+        <v>0.05514</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01489</v>
+        <v>0.02757</v>
       </c>
       <c r="F23" t="n">
-        <v>1.9256</v>
+        <v>3.56687</v>
       </c>
       <c r="G23" t="n">
         <v>0.15</v>
@@ -1055,16 +1055,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D24" t="n">
-        <v>0.03157</v>
+        <v>0.05013</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01579</v>
+        <v>0.02506</v>
       </c>
       <c r="F24" t="n">
-        <v>1.60474</v>
+        <v>2.97007</v>
       </c>
       <c r="G24" t="n">
         <v>0.15</v>
@@ -1081,16 +1081,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03656</v>
+        <v>0.05478</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01828</v>
+        <v>0.02739</v>
       </c>
       <c r="F25" t="n">
-        <v>2.38077</v>
+        <v>3.1376</v>
       </c>
       <c r="G25" t="n">
         <v>0.15</v>
@@ -1107,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0335</v>
+        <v>0.02675</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01675</v>
+        <v>0.01337</v>
       </c>
       <c r="F26" t="n">
-        <v>1.94161</v>
+        <v>1.7087</v>
       </c>
       <c r="G26" t="n">
         <v>0.15</v>
@@ -1133,16 +1133,16 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04368</v>
+        <v>0.04607</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02184</v>
+        <v>0.02304</v>
       </c>
       <c r="F27" t="n">
-        <v>3.20289</v>
+        <v>2.30036</v>
       </c>
       <c r="G27" t="n">
         <v>0.15</v>
@@ -1159,16 +1159,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02197</v>
+        <v>0.04057</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01098</v>
+        <v>0.02029</v>
       </c>
       <c r="F28" t="n">
-        <v>1.85784</v>
+        <v>1.74003</v>
       </c>
       <c r="G28" t="n">
         <v>0.15</v>
@@ -1185,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03386</v>
+        <v>0.03277</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01693</v>
+        <v>0.01639</v>
       </c>
       <c r="F29" t="n">
-        <v>1.69603</v>
+        <v>1.84161</v>
       </c>
       <c r="G29" t="n">
         <v>0.15</v>
@@ -1211,16 +1211,16 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="n">
-        <v>0.04577</v>
+        <v>0.05666</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02288</v>
+        <v>0.02833</v>
       </c>
       <c r="F30" t="n">
-        <v>2.19125</v>
+        <v>2.61502</v>
       </c>
       <c r="G30" t="n">
         <v>0.15</v>
@@ -1237,16 +1237,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07096</v>
+        <v>0.05267</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03548</v>
+        <v>0.02634</v>
       </c>
       <c r="F31" t="n">
-        <v>2.7836</v>
+        <v>3.82528</v>
       </c>
       <c r="G31" t="n">
         <v>0.15</v>
@@ -1263,16 +1263,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0233</v>
+        <v>0.07548000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01165</v>
+        <v>0.03774</v>
       </c>
       <c r="F32" t="n">
-        <v>1.63882</v>
+        <v>3.29542</v>
       </c>
       <c r="G32" t="n">
         <v>0.15</v>
@@ -1289,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03403</v>
+        <v>0.09050999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01702</v>
+        <v>0.04525</v>
       </c>
       <c r="F33" t="n">
-        <v>1.8036</v>
+        <v>2.92415</v>
       </c>
       <c r="G33" t="n">
         <v>0.15</v>
@@ -1315,16 +1315,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D34" t="n">
-        <v>0.04796</v>
+        <v>0.04802</v>
       </c>
       <c r="E34" t="n">
-        <v>0.02398</v>
+        <v>0.02401</v>
       </c>
       <c r="F34" t="n">
-        <v>2.50521</v>
+        <v>2.85789</v>
       </c>
       <c r="G34" t="n">
         <v>0.15</v>
@@ -1341,16 +1341,16 @@
         <v>1</v>
       </c>
       <c r="C35" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02565</v>
+        <v>0.04684</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01283</v>
+        <v>0.02342</v>
       </c>
       <c r="F35" t="n">
-        <v>1.60082</v>
+        <v>2.74635</v>
       </c>
       <c r="G35" t="n">
         <v>0.15</v>
@@ -1367,16 +1367,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06271</v>
+        <v>0.05231</v>
       </c>
       <c r="E36" t="n">
-        <v>0.03135</v>
+        <v>0.02616</v>
       </c>
       <c r="F36" t="n">
-        <v>2.68087</v>
+        <v>3.2644</v>
       </c>
       <c r="G36" t="n">
         <v>0.15</v>
@@ -1393,16 +1393,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07504</v>
+        <v>0.04512</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03752</v>
+        <v>0.02256</v>
       </c>
       <c r="F37" t="n">
-        <v>2.48862</v>
+        <v>2.42447</v>
       </c>
       <c r="G37" t="n">
         <v>0.15</v>
@@ -1419,16 +1419,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D38" t="n">
-        <v>0.04239</v>
+        <v>0.02775</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02119</v>
+        <v>0.01387</v>
       </c>
       <c r="F38" t="n">
-        <v>2.62317</v>
+        <v>1.96494</v>
       </c>
       <c r="G38" t="n">
         <v>0.15</v>
@@ -1445,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D39" t="n">
-        <v>0.05156</v>
+        <v>0.0346</v>
       </c>
       <c r="E39" t="n">
-        <v>0.02578</v>
+        <v>0.0173</v>
       </c>
       <c r="F39" t="n">
-        <v>3.07667</v>
+        <v>2.08348</v>
       </c>
       <c r="G39" t="n">
         <v>0.15</v>
@@ -1471,16 +1471,16 @@
         <v>1</v>
       </c>
       <c r="C40" t="n">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D40" t="n">
-        <v>0.04037</v>
+        <v>0.04899</v>
       </c>
       <c r="E40" t="n">
-        <v>0.02019</v>
+        <v>0.02449</v>
       </c>
       <c r="F40" t="n">
-        <v>1.78117</v>
+        <v>2.81815</v>
       </c>
       <c r="G40" t="n">
         <v>0.15</v>
@@ -1497,16 +1497,16 @@
         <v>1</v>
       </c>
       <c r="C41" t="n">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D41" t="n">
-        <v>0.05263</v>
+        <v>0.03875</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02632</v>
+        <v>0.01937</v>
       </c>
       <c r="F41" t="n">
-        <v>2.02809</v>
+        <v>1.83734</v>
       </c>
       <c r="G41" t="n">
         <v>0.15</v>
@@ -1523,16 +1523,16 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06338000000000001</v>
+        <v>0.06476</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01584</v>
+        <v>0.01619</v>
       </c>
       <c r="F42" t="n">
-        <v>3.61837</v>
+        <v>2.35639</v>
       </c>
       <c r="G42" t="n">
         <v>0.15</v>
@@ -1549,16 +1549,16 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06347999999999999</v>
+        <v>0.10626</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01587</v>
+        <v>0.02657</v>
       </c>
       <c r="F43" t="n">
-        <v>2.12021</v>
+        <v>2.81458</v>
       </c>
       <c r="G43" t="n">
         <v>0.15</v>
@@ -1575,16 +1575,16 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>0.09390999999999999</v>
+        <v>0.06066</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02348</v>
+        <v>0.01517</v>
       </c>
       <c r="F44" t="n">
-        <v>4.11166</v>
+        <v>2.53531</v>
       </c>
       <c r="G44" t="n">
         <v>0.15</v>
@@ -1601,16 +1601,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08155</v>
+        <v>0.05968</v>
       </c>
       <c r="E45" t="n">
-        <v>0.02039</v>
+        <v>0.01492</v>
       </c>
       <c r="F45" t="n">
-        <v>3.91074</v>
+        <v>2.63152</v>
       </c>
       <c r="G45" t="n">
         <v>0.15</v>
@@ -1627,16 +1627,16 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07811</v>
+        <v>0.10263</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01953</v>
+        <v>0.02566</v>
       </c>
       <c r="F46" t="n">
-        <v>3.36575</v>
+        <v>3.8985</v>
       </c>
       <c r="G46" t="n">
         <v>0.15</v>
@@ -1653,16 +1653,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07732</v>
+        <v>0.0433</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01933</v>
+        <v>0.01083</v>
       </c>
       <c r="F47" t="n">
-        <v>2.40799</v>
+        <v>1.64842</v>
       </c>
       <c r="G47" t="n">
         <v>0.15</v>
@@ -1679,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
-        <v>0.05855</v>
+        <v>0.03644</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01464</v>
+        <v>0.00911</v>
       </c>
       <c r="F48" t="n">
-        <v>1.8199</v>
+        <v>1.34651</v>
       </c>
       <c r="G48" t="n">
         <v>0.15</v>
@@ -1705,16 +1705,16 @@
         <v>1</v>
       </c>
       <c r="C49" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07081</v>
+        <v>0.03159</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0177</v>
+        <v>0.007900000000000001</v>
       </c>
       <c r="F49" t="n">
-        <v>4.26245</v>
+        <v>1.38085</v>
       </c>
       <c r="G49" t="n">
         <v>0.15</v>
@@ -1731,16 +1731,16 @@
         <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="D50" t="n">
-        <v>0.13065</v>
+        <v>0.07191</v>
       </c>
       <c r="E50" t="n">
-        <v>0.03266</v>
+        <v>0.01798</v>
       </c>
       <c r="F50" t="n">
-        <v>2.69575</v>
+        <v>3.74312</v>
       </c>
       <c r="G50" t="n">
         <v>0.15</v>
@@ -1757,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D51" t="n">
-        <v>0.12132</v>
+        <v>0.07553</v>
       </c>
       <c r="E51" t="n">
-        <v>0.03033</v>
+        <v>0.01888</v>
       </c>
       <c r="F51" t="n">
-        <v>3.1057</v>
+        <v>2.8284</v>
       </c>
       <c r="G51" t="n">
         <v>0.15</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07491</v>
+        <v>0.14809</v>
       </c>
       <c r="E52" t="n">
-        <v>0.01873</v>
+        <v>0.03702</v>
       </c>
       <c r="F52" t="n">
-        <v>3.21143</v>
+        <v>2.1345</v>
       </c>
       <c r="G52" t="n">
         <v>0.15</v>
@@ -1809,16 +1809,16 @@
         <v>1</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D53" t="n">
-        <v>0.10899</v>
+        <v>0.07538</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02725</v>
+        <v>0.01884</v>
       </c>
       <c r="F53" t="n">
-        <v>3.21823</v>
+        <v>3.31061</v>
       </c>
       <c r="G53" t="n">
         <v>0.15</v>
@@ -1835,16 +1835,16 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="D54" t="n">
-        <v>0.06021</v>
+        <v>0.04889</v>
       </c>
       <c r="E54" t="n">
-        <v>0.01505</v>
+        <v>0.01222</v>
       </c>
       <c r="F54" t="n">
-        <v>2.26139</v>
+        <v>2.58584</v>
       </c>
       <c r="G54" t="n">
         <v>0.15</v>
@@ -1861,16 +1861,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07731</v>
+        <v>0.0472</v>
       </c>
       <c r="E55" t="n">
-        <v>0.01933</v>
+        <v>0.0118</v>
       </c>
       <c r="F55" t="n">
-        <v>3.01788</v>
+        <v>2.65527</v>
       </c>
       <c r="G55" t="n">
         <v>0.15</v>
@@ -1887,16 +1887,16 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07368</v>
+        <v>0.10176</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01842</v>
+        <v>0.02544</v>
       </c>
       <c r="F56" t="n">
-        <v>2.68669</v>
+        <v>3.63728</v>
       </c>
       <c r="G56" t="n">
         <v>0.15</v>
@@ -1913,16 +1913,16 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08676</v>
+        <v>0.06376</v>
       </c>
       <c r="E57" t="n">
-        <v>0.02169</v>
+        <v>0.01594</v>
       </c>
       <c r="F57" t="n">
-        <v>4.21984</v>
+        <v>2.1358</v>
       </c>
       <c r="G57" t="n">
         <v>0.15</v>
@@ -1939,16 +1939,16 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D58" t="n">
-        <v>0.10468</v>
+        <v>0.0471</v>
       </c>
       <c r="E58" t="n">
-        <v>0.02617</v>
+        <v>0.01177</v>
       </c>
       <c r="F58" t="n">
-        <v>2.9614</v>
+        <v>1.92911</v>
       </c>
       <c r="G58" t="n">
         <v>0.15</v>
@@ -1965,16 +1965,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D59" t="n">
-        <v>0.06797</v>
+        <v>0.07518</v>
       </c>
       <c r="E59" t="n">
-        <v>0.01699</v>
+        <v>0.0188</v>
       </c>
       <c r="F59" t="n">
-        <v>2.44508</v>
+        <v>2.39616</v>
       </c>
       <c r="G59" t="n">
         <v>0.15</v>
@@ -1991,16 +1991,16 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D60" t="n">
-        <v>0.06179</v>
+        <v>0.06907000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>0.01545</v>
+        <v>0.01727</v>
       </c>
       <c r="F60" t="n">
-        <v>2.87695</v>
+        <v>2.49921</v>
       </c>
       <c r="G60" t="n">
         <v>0.15</v>
@@ -2017,16 +2017,16 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04864</v>
+        <v>0.09146</v>
       </c>
       <c r="E61" t="n">
-        <v>0.01216</v>
+        <v>0.02287</v>
       </c>
       <c r="F61" t="n">
-        <v>1.76836</v>
+        <v>2.67116</v>
       </c>
       <c r="G61" t="n">
         <v>0.15</v>
@@ -2043,16 +2043,16 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
-        <v>0.02855</v>
+        <v>0.02367</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00714</v>
+        <v>0.00592</v>
       </c>
       <c r="F62" t="n">
-        <v>1.31569</v>
+        <v>1.78866</v>
       </c>
       <c r="G62" t="n">
         <v>0.85</v>
@@ -2069,16 +2069,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D63" t="n">
-        <v>0.03309</v>
+        <v>0.03972</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00827</v>
+        <v>0.00993</v>
       </c>
       <c r="F63" t="n">
-        <v>1.86696</v>
+        <v>2.52153</v>
       </c>
       <c r="G63" t="n">
         <v>0.85</v>
@@ -2095,16 +2095,16 @@
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03844</v>
+        <v>0.01983</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00961</v>
+        <v>0.00496</v>
       </c>
       <c r="F64" t="n">
-        <v>2.19488</v>
+        <v>1.24547</v>
       </c>
       <c r="G64" t="n">
         <v>0.85</v>
@@ -2121,16 +2121,16 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D65" t="n">
-        <v>0.02246</v>
+        <v>0.03845</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00561</v>
+        <v>0.00961</v>
       </c>
       <c r="F65" t="n">
-        <v>1.3496</v>
+        <v>2.67418</v>
       </c>
       <c r="G65" t="n">
         <v>0.85</v>
@@ -2147,16 +2147,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03411</v>
+        <v>0.02347</v>
       </c>
       <c r="E66" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.00587</v>
       </c>
       <c r="F66" t="n">
-        <v>1.17273</v>
+        <v>2.23206</v>
       </c>
       <c r="G66" t="n">
         <v>0.85</v>
@@ -2173,16 +2173,16 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D67" t="n">
-        <v>0.03126</v>
+        <v>0.03737</v>
       </c>
       <c r="E67" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>2.05136</v>
+        <v>2.62073</v>
       </c>
       <c r="G67" t="n">
         <v>0.85</v>
@@ -2199,16 +2199,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03946</v>
+        <v>0.06929</v>
       </c>
       <c r="E68" t="n">
-        <v>0.009860000000000001</v>
+        <v>0.01732</v>
       </c>
       <c r="F68" t="n">
-        <v>2.85382</v>
+        <v>3.10137</v>
       </c>
       <c r="G68" t="n">
         <v>0.85</v>
@@ -2225,16 +2225,16 @@
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04232</v>
+        <v>0.06546</v>
       </c>
       <c r="E69" t="n">
-        <v>0.01058</v>
+        <v>0.01637</v>
       </c>
       <c r="F69" t="n">
-        <v>2.16208</v>
+        <v>2.86382</v>
       </c>
       <c r="G69" t="n">
         <v>0.85</v>
@@ -2251,16 +2251,16 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04742</v>
+        <v>0.02613</v>
       </c>
       <c r="E70" t="n">
-        <v>0.01185</v>
+        <v>0.00653</v>
       </c>
       <c r="F70" t="n">
-        <v>1.86381</v>
+        <v>2.15528</v>
       </c>
       <c r="G70" t="n">
         <v>0.85</v>
@@ -2277,16 +2277,16 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D71" t="n">
-        <v>0.05461</v>
+        <v>0.05677</v>
       </c>
       <c r="E71" t="n">
-        <v>0.01365</v>
+        <v>0.01419</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2098</v>
+        <v>2.38445</v>
       </c>
       <c r="G71" t="n">
         <v>0.85</v>
@@ -2303,16 +2303,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D72" t="n">
-        <v>0.01334</v>
+        <v>0.03351</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00333</v>
+        <v>0.00838</v>
       </c>
       <c r="F72" t="n">
-        <v>1.27483</v>
+        <v>2.34393</v>
       </c>
       <c r="G72" t="n">
         <v>0.85</v>
@@ -2329,16 +2329,16 @@
         <v>1</v>
       </c>
       <c r="C73" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03724</v>
+        <v>0.06018</v>
       </c>
       <c r="E73" t="n">
-        <v>0.009310000000000001</v>
+        <v>0.01505</v>
       </c>
       <c r="F73" t="n">
-        <v>1.51283</v>
+        <v>2.93227</v>
       </c>
       <c r="G73" t="n">
         <v>0.85</v>
@@ -2355,16 +2355,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" t="n">
-        <v>0.01876</v>
+        <v>0.01341</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00469</v>
+        <v>0.00335</v>
       </c>
       <c r="F74" t="n">
-        <v>1.16053</v>
+        <v>1.36097</v>
       </c>
       <c r="G74" t="n">
         <v>0.85</v>
@@ -2381,16 +2381,16 @@
         <v>1</v>
       </c>
       <c r="C75" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D75" t="n">
-        <v>0.02244</v>
+        <v>0.03682</v>
       </c>
       <c r="E75" t="n">
-        <v>0.00561</v>
+        <v>0.0092</v>
       </c>
       <c r="F75" t="n">
-        <v>1.17108</v>
+        <v>1.71878</v>
       </c>
       <c r="G75" t="n">
         <v>0.85</v>
@@ -2407,16 +2407,16 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D76" t="n">
-        <v>0.02057</v>
+        <v>0.02277</v>
       </c>
       <c r="E76" t="n">
-        <v>0.00514</v>
+        <v>0.00569</v>
       </c>
       <c r="F76" t="n">
-        <v>1.09963</v>
+        <v>1.14915</v>
       </c>
       <c r="G76" t="n">
         <v>0.85</v>
@@ -2433,16 +2433,16 @@
         <v>1</v>
       </c>
       <c r="C77" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D77" t="n">
-        <v>0.01831</v>
+        <v>0.04006</v>
       </c>
       <c r="E77" t="n">
-        <v>0.00458</v>
+        <v>0.01002</v>
       </c>
       <c r="F77" t="n">
-        <v>1.06465</v>
+        <v>2.32801</v>
       </c>
       <c r="G77" t="n">
         <v>0.85</v>
@@ -2459,16 +2459,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D78" t="n">
-        <v>0.01366</v>
+        <v>0.03464</v>
       </c>
       <c r="E78" t="n">
-        <v>0.00342</v>
+        <v>0.008659999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>0.90634</v>
+        <v>1.87229</v>
       </c>
       <c r="G78" t="n">
         <v>0.85</v>
@@ -2485,16 +2485,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D79" t="n">
-        <v>0.02344</v>
+        <v>0.04955</v>
       </c>
       <c r="E79" t="n">
-        <v>0.00586</v>
+        <v>0.01239</v>
       </c>
       <c r="F79" t="n">
-        <v>1.24263</v>
+        <v>3.69005</v>
       </c>
       <c r="G79" t="n">
         <v>0.85</v>
@@ -2511,16 +2511,16 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>0.01951</v>
+        <v>0.0144</v>
       </c>
       <c r="E80" t="n">
-        <v>0.00488</v>
+        <v>0.0036</v>
       </c>
       <c r="F80" t="n">
-        <v>1.29207</v>
+        <v>0.8736699999999999</v>
       </c>
       <c r="G80" t="n">
         <v>0.85</v>
@@ -2537,16 +2537,16 @@
         <v>1</v>
       </c>
       <c r="C81" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D81" t="n">
-        <v>0.02096</v>
+        <v>0.01374</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00524</v>
+        <v>0.00343</v>
       </c>
       <c r="F81" t="n">
-        <v>1.16372</v>
+        <v>0.98506</v>
       </c>
       <c r="G81" t="n">
         <v>0.85</v>
@@ -2563,16 +2563,16 @@
         <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D82" t="n">
-        <v>0.04551</v>
+        <v>0.0367</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00758</v>
+        <v>0.00612</v>
       </c>
       <c r="F82" t="n">
-        <v>2.16799</v>
+        <v>1.71186</v>
       </c>
       <c r="G82" t="n">
         <v>0.85</v>
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0265</v>
+        <v>0.03652</v>
       </c>
       <c r="E83" t="n">
-        <v>0.00442</v>
+        <v>0.00609</v>
       </c>
       <c r="F83" t="n">
-        <v>1.58693</v>
+        <v>1.63688</v>
       </c>
       <c r="G83" t="n">
         <v>0.85</v>
@@ -2615,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0469</v>
+        <v>0.03835</v>
       </c>
       <c r="E84" t="n">
-        <v>0.007820000000000001</v>
+        <v>0.00639</v>
       </c>
       <c r="F84" t="n">
-        <v>1.66095</v>
+        <v>1.51645</v>
       </c>
       <c r="G84" t="n">
         <v>0.85</v>
@@ -2641,16 +2641,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02675</v>
+        <v>0.03471</v>
       </c>
       <c r="E85" t="n">
-        <v>0.00446</v>
+        <v>0.00578</v>
       </c>
       <c r="F85" t="n">
-        <v>1.84008</v>
+        <v>2.05188</v>
       </c>
       <c r="G85" t="n">
         <v>0.85</v>
@@ -2667,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03771</v>
+        <v>0.04597</v>
       </c>
       <c r="E86" t="n">
-        <v>0.00628</v>
+        <v>0.00766</v>
       </c>
       <c r="F86" t="n">
-        <v>1.32174</v>
+        <v>1.72716</v>
       </c>
       <c r="G86" t="n">
         <v>0.85</v>
@@ -2693,16 +2693,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D87" t="n">
-        <v>0.05467</v>
+        <v>0.07417</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00911</v>
+        <v>0.01236</v>
       </c>
       <c r="F87" t="n">
-        <v>2.2129</v>
+        <v>1.99222</v>
       </c>
       <c r="G87" t="n">
         <v>0.85</v>
@@ -2719,16 +2719,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D88" t="n">
-        <v>0.04289</v>
+        <v>0.03859</v>
       </c>
       <c r="E88" t="n">
-        <v>0.00715</v>
+        <v>0.00643</v>
       </c>
       <c r="F88" t="n">
-        <v>1.74786</v>
+        <v>1.86855</v>
       </c>
       <c r="G88" t="n">
         <v>0.85</v>
@@ -2745,16 +2745,16 @@
         <v>1</v>
       </c>
       <c r="C89" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D89" t="n">
-        <v>0.06598</v>
+        <v>0.04391</v>
       </c>
       <c r="E89" t="n">
-        <v>0.011</v>
+        <v>0.00732</v>
       </c>
       <c r="F89" t="n">
-        <v>3.11409</v>
+        <v>2.31241</v>
       </c>
       <c r="G89" t="n">
         <v>0.85</v>
@@ -2771,16 +2771,16 @@
         <v>1</v>
       </c>
       <c r="C90" t="n">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D90" t="n">
-        <v>0.03334</v>
+        <v>0.05654</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00556</v>
+        <v>0.00942</v>
       </c>
       <c r="F90" t="n">
-        <v>1.46421</v>
+        <v>2.9084</v>
       </c>
       <c r="G90" t="n">
         <v>0.85</v>
@@ -2797,16 +2797,16 @@
         <v>1</v>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02615</v>
+        <v>0.03514</v>
       </c>
       <c r="E91" t="n">
-        <v>0.00436</v>
+        <v>0.00586</v>
       </c>
       <c r="F91" t="n">
-        <v>1.10784</v>
+        <v>1.91581</v>
       </c>
       <c r="G91" t="n">
         <v>0.85</v>
@@ -2823,16 +2823,16 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02606</v>
+        <v>0.03446</v>
       </c>
       <c r="E92" t="n">
-        <v>0.00434</v>
+        <v>0.00574</v>
       </c>
       <c r="F92" t="n">
-        <v>1.02415</v>
+        <v>1.77158</v>
       </c>
       <c r="G92" t="n">
         <v>0.85</v>
@@ -2849,16 +2849,16 @@
         <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D93" t="n">
-        <v>0.04338</v>
+        <v>0.05871</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00723</v>
+        <v>0.00979</v>
       </c>
       <c r="F93" t="n">
-        <v>2.28359</v>
+        <v>2.19839</v>
       </c>
       <c r="G93" t="n">
         <v>0.85</v>
@@ -2875,16 +2875,16 @@
         <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D94" t="n">
-        <v>0.01029</v>
+        <v>0.07804999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.00171</v>
+        <v>0.01301</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9706</v>
+        <v>2.4185</v>
       </c>
       <c r="G94" t="n">
         <v>0.85</v>
@@ -2901,16 +2901,16 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02246</v>
+        <v>0.02859</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00374</v>
+        <v>0.00476</v>
       </c>
       <c r="F95" t="n">
-        <v>1.03078</v>
+        <v>1.30009</v>
       </c>
       <c r="G95" t="n">
         <v>0.85</v>
@@ -2927,16 +2927,16 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D96" t="n">
-        <v>0.03695</v>
+        <v>0.043</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00616</v>
+        <v>0.00717</v>
       </c>
       <c r="F96" t="n">
-        <v>1.51676</v>
+        <v>1.76057</v>
       </c>
       <c r="G96" t="n">
         <v>0.85</v>
@@ -2953,16 +2953,16 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D97" t="n">
-        <v>0.03328</v>
+        <v>0.06901</v>
       </c>
       <c r="E97" t="n">
-        <v>0.00555</v>
+        <v>0.0115</v>
       </c>
       <c r="F97" t="n">
-        <v>1.69444</v>
+        <v>2.53201</v>
       </c>
       <c r="G97" t="n">
         <v>0.85</v>
@@ -2979,16 +2979,16 @@
         <v>1</v>
       </c>
       <c r="C98" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D98" t="n">
-        <v>0.04123</v>
+        <v>0.04035</v>
       </c>
       <c r="E98" t="n">
-        <v>0.00687</v>
+        <v>0.00673</v>
       </c>
       <c r="F98" t="n">
-        <v>1.88537</v>
+        <v>1.47344</v>
       </c>
       <c r="G98" t="n">
         <v>0.85</v>
@@ -3005,16 +3005,16 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D99" t="n">
-        <v>0.08636000000000001</v>
+        <v>0.0283</v>
       </c>
       <c r="E99" t="n">
-        <v>0.01439</v>
+        <v>0.00472</v>
       </c>
       <c r="F99" t="n">
-        <v>2.49011</v>
+        <v>1.64462</v>
       </c>
       <c r="G99" t="n">
         <v>0.85</v>
@@ -3031,16 +3031,16 @@
         <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D100" t="n">
-        <v>0.06619</v>
+        <v>0.08214</v>
       </c>
       <c r="E100" t="n">
-        <v>0.01103</v>
+        <v>0.01369</v>
       </c>
       <c r="F100" t="n">
-        <v>2.58356</v>
+        <v>2.52502</v>
       </c>
       <c r="G100" t="n">
         <v>0.85</v>
@@ -3057,16 +3057,16 @@
         <v>1</v>
       </c>
       <c r="C101" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D101" t="n">
-        <v>0.03847</v>
+        <v>0.05263</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00641</v>
+        <v>0.00877</v>
       </c>
       <c r="F101" t="n">
-        <v>1.55933</v>
+        <v>1.51752</v>
       </c>
       <c r="G101" t="n">
         <v>0.85</v>
@@ -3083,16 +3083,16 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D102" t="n">
-        <v>0.08792</v>
+        <v>0.21172</v>
       </c>
       <c r="E102" t="n">
-        <v>0.01465</v>
+        <v>0.03529</v>
       </c>
       <c r="F102" t="n">
-        <v>2.66177</v>
+        <v>3.54959</v>
       </c>
       <c r="G102" t="n">
         <v>0.15</v>
@@ -3109,16 +3109,16 @@
         <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D103" t="n">
-        <v>0.05687</v>
+        <v>0.06683</v>
       </c>
       <c r="E103" t="n">
-        <v>0.009480000000000001</v>
+        <v>0.01114</v>
       </c>
       <c r="F103" t="n">
-        <v>2.54713</v>
+        <v>3.18105</v>
       </c>
       <c r="G103" t="n">
         <v>0.15</v>
@@ -3135,16 +3135,16 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D104" t="n">
-        <v>0.06033</v>
+        <v>0.06716</v>
       </c>
       <c r="E104" t="n">
-        <v>0.01006</v>
+        <v>0.01119</v>
       </c>
       <c r="F104" t="n">
-        <v>2.09711</v>
+        <v>2.51486</v>
       </c>
       <c r="G104" t="n">
         <v>0.15</v>
@@ -3161,16 +3161,16 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D105" t="n">
-        <v>0.03522</v>
+        <v>0.09655</v>
       </c>
       <c r="E105" t="n">
-        <v>0.00587</v>
+        <v>0.01609</v>
       </c>
       <c r="F105" t="n">
-        <v>1.57783</v>
+        <v>2.9855</v>
       </c>
       <c r="G105" t="n">
         <v>0.15</v>
@@ -3187,16 +3187,16 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D106" t="n">
-        <v>0.11411</v>
+        <v>0.07972</v>
       </c>
       <c r="E106" t="n">
-        <v>0.01902</v>
+        <v>0.01329</v>
       </c>
       <c r="F106" t="n">
-        <v>2.73986</v>
+        <v>3.90185</v>
       </c>
       <c r="G106" t="n">
         <v>0.15</v>
@@ -3213,16 +3213,16 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.04386</v>
+        <v>0.06765</v>
       </c>
       <c r="E107" t="n">
-        <v>0.00731</v>
+        <v>0.01128</v>
       </c>
       <c r="F107" t="n">
-        <v>1.31383</v>
+        <v>1.89863</v>
       </c>
       <c r="G107" t="n">
         <v>0.15</v>
@@ -3239,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D108" t="n">
-        <v>0.06857000000000001</v>
+        <v>0.08245</v>
       </c>
       <c r="E108" t="n">
-        <v>0.01143</v>
+        <v>0.01374</v>
       </c>
       <c r="F108" t="n">
-        <v>1.65618</v>
+        <v>1.88756</v>
       </c>
       <c r="G108" t="n">
         <v>0.15</v>
@@ -3265,16 +3265,16 @@
         <v>1</v>
       </c>
       <c r="C109" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D109" t="n">
-        <v>0.04516</v>
+        <v>0.06525</v>
       </c>
       <c r="E109" t="n">
-        <v>0.00753</v>
+        <v>0.01087</v>
       </c>
       <c r="F109" t="n">
-        <v>2.01459</v>
+        <v>1.84331</v>
       </c>
       <c r="G109" t="n">
         <v>0.15</v>
@@ -3291,16 +3291,16 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D110" t="n">
-        <v>0.13711</v>
+        <v>0.08237999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.02285</v>
+        <v>0.01373</v>
       </c>
       <c r="F110" t="n">
-        <v>2.94665</v>
+        <v>2.45522</v>
       </c>
       <c r="G110" t="n">
         <v>0.15</v>
@@ -3317,16 +3317,16 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D111" t="n">
-        <v>0.10282</v>
+        <v>0.09301</v>
       </c>
       <c r="E111" t="n">
-        <v>0.01714</v>
+        <v>0.0155</v>
       </c>
       <c r="F111" t="n">
-        <v>2.54863</v>
+        <v>2.28737</v>
       </c>
       <c r="G111" t="n">
         <v>0.15</v>
@@ -3343,16 +3343,16 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D112" t="n">
-        <v>0.05762</v>
+        <v>0.07758</v>
       </c>
       <c r="E112" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.01293</v>
       </c>
       <c r="F112" t="n">
-        <v>2.06423</v>
+        <v>2.5761</v>
       </c>
       <c r="G112" t="n">
         <v>0.15</v>
@@ -3369,16 +3369,16 @@
         <v>1</v>
       </c>
       <c r="C113" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D113" t="n">
-        <v>0.1041</v>
+        <v>0.12395</v>
       </c>
       <c r="E113" t="n">
-        <v>0.01735</v>
+        <v>0.02066</v>
       </c>
       <c r="F113" t="n">
-        <v>2.06333</v>
+        <v>3.28464</v>
       </c>
       <c r="G113" t="n">
         <v>0.15</v>
@@ -3395,16 +3395,16 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0979</v>
+        <v>0.05777</v>
       </c>
       <c r="E114" t="n">
-        <v>0.01632</v>
+        <v>0.00963</v>
       </c>
       <c r="F114" t="n">
-        <v>3.96411</v>
+        <v>2.15953</v>
       </c>
       <c r="G114" t="n">
         <v>0.15</v>
@@ -3421,16 +3421,16 @@
         <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D115" t="n">
-        <v>0.07965999999999999</v>
+        <v>0.12041</v>
       </c>
       <c r="E115" t="n">
-        <v>0.01328</v>
+        <v>0.02007</v>
       </c>
       <c r="F115" t="n">
-        <v>2.34136</v>
+        <v>3.70746</v>
       </c>
       <c r="G115" t="n">
         <v>0.15</v>
@@ -3447,16 +3447,16 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06494</v>
+        <v>0.12615</v>
       </c>
       <c r="E116" t="n">
-        <v>0.01082</v>
+        <v>0.02103</v>
       </c>
       <c r="F116" t="n">
-        <v>2.27156</v>
+        <v>3.54237</v>
       </c>
       <c r="G116" t="n">
         <v>0.15</v>
@@ -3473,16 +3473,16 @@
         <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D117" t="n">
-        <v>0.06845</v>
+        <v>0.12381</v>
       </c>
       <c r="E117" t="n">
-        <v>0.01141</v>
+        <v>0.02063</v>
       </c>
       <c r="F117" t="n">
-        <v>2.09585</v>
+        <v>2.599</v>
       </c>
       <c r="G117" t="n">
         <v>0.15</v>
@@ -3499,16 +3499,16 @@
         <v>1</v>
       </c>
       <c r="C118" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D118" t="n">
-        <v>0.0501</v>
+        <v>0.07278</v>
       </c>
       <c r="E118" t="n">
-        <v>0.00835</v>
+        <v>0.01213</v>
       </c>
       <c r="F118" t="n">
-        <v>1.84583</v>
+        <v>2.71682</v>
       </c>
       <c r="G118" t="n">
         <v>0.15</v>
@@ -3525,16 +3525,16 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D119" t="n">
-        <v>0.05433</v>
+        <v>0.05104</v>
       </c>
       <c r="E119" t="n">
-        <v>0.009050000000000001</v>
+        <v>0.00851</v>
       </c>
       <c r="F119" t="n">
-        <v>2.09602</v>
+        <v>1.48126</v>
       </c>
       <c r="G119" t="n">
         <v>0.15</v>
@@ -3551,16 +3551,16 @@
         <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D120" t="n">
-        <v>0.06335</v>
+        <v>0.04676</v>
       </c>
       <c r="E120" t="n">
-        <v>0.01056</v>
+        <v>0.00779</v>
       </c>
       <c r="F120" t="n">
-        <v>1.6608</v>
+        <v>1.55007</v>
       </c>
       <c r="G120" t="n">
         <v>0.15</v>
@@ -3577,16 +3577,16 @@
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D121" t="n">
-        <v>0.05458</v>
+        <v>0.07244</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0091</v>
+        <v>0.01207</v>
       </c>
       <c r="F121" t="n">
-        <v>1.36712</v>
+        <v>2.67767</v>
       </c>
       <c r="G121" t="n">
         <v>0.15</v>
@@ -3603,16 +3603,16 @@
         <v>1</v>
       </c>
       <c r="C122" t="n">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>0.04423</v>
+        <v>0.07677</v>
       </c>
       <c r="E122" t="n">
-        <v>0.00553</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F122" t="n">
-        <v>1.55884</v>
+        <v>1.33634</v>
       </c>
       <c r="G122" t="n">
         <v>0.15</v>
@@ -3629,16 +3629,16 @@
         <v>1</v>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D123" t="n">
-        <v>0.07129000000000001</v>
+        <v>0.08862</v>
       </c>
       <c r="E123" t="n">
-        <v>0.00891</v>
+        <v>0.01108</v>
       </c>
       <c r="F123" t="n">
-        <v>1.23853</v>
+        <v>2.60805</v>
       </c>
       <c r="G123" t="n">
         <v>0.15</v>
@@ -3655,16 +3655,16 @@
         <v>1</v>
       </c>
       <c r="C124" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>0.08418</v>
+        <v>0.14447</v>
       </c>
       <c r="E124" t="n">
-        <v>0.01052</v>
+        <v>0.01806</v>
       </c>
       <c r="F124" t="n">
-        <v>2.00733</v>
+        <v>3.81102</v>
       </c>
       <c r="G124" t="n">
         <v>0.15</v>
@@ -3681,16 +3681,16 @@
         <v>1</v>
       </c>
       <c r="C125" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D125" t="n">
-        <v>0.09393</v>
+        <v>0.16643</v>
       </c>
       <c r="E125" t="n">
-        <v>0.01174</v>
+        <v>0.0208</v>
       </c>
       <c r="F125" t="n">
-        <v>1.93853</v>
+        <v>3.1473</v>
       </c>
       <c r="G125" t="n">
         <v>0.15</v>
@@ -3707,16 +3707,16 @@
         <v>1</v>
       </c>
       <c r="C126" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D126" t="n">
-        <v>0.08741</v>
+        <v>0.0717</v>
       </c>
       <c r="E126" t="n">
-        <v>0.01093</v>
+        <v>0.008959999999999999</v>
       </c>
       <c r="F126" t="n">
-        <v>1.29573</v>
+        <v>2.42332</v>
       </c>
       <c r="G126" t="n">
         <v>0.15</v>
@@ -3733,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D127" t="n">
-        <v>0.08035</v>
+        <v>0.06254</v>
       </c>
       <c r="E127" t="n">
-        <v>0.01004</v>
+        <v>0.007820000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>2.24777</v>
+        <v>1.41363</v>
       </c>
       <c r="G127" t="n">
         <v>0.15</v>
@@ -3759,16 +3759,16 @@
         <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D128" t="n">
-        <v>0.05834</v>
+        <v>0.0451</v>
       </c>
       <c r="E128" t="n">
-        <v>0.00729</v>
+        <v>0.00564</v>
       </c>
       <c r="F128" t="n">
-        <v>1.58295</v>
+        <v>1.02684</v>
       </c>
       <c r="G128" t="n">
         <v>0.15</v>
@@ -3785,16 +3785,16 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D129" t="n">
-        <v>0.06686</v>
+        <v>0.05621</v>
       </c>
       <c r="E129" t="n">
-        <v>0.008359999999999999</v>
+        <v>0.00703</v>
       </c>
       <c r="F129" t="n">
-        <v>1.47216</v>
+        <v>1.49062</v>
       </c>
       <c r="G129" t="n">
         <v>0.15</v>
@@ -3811,16 +3811,16 @@
         <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D130" t="n">
-        <v>0.04627</v>
+        <v>0.05963</v>
       </c>
       <c r="E130" t="n">
-        <v>0.00578</v>
+        <v>0.00745</v>
       </c>
       <c r="F130" t="n">
-        <v>1.20866</v>
+        <v>1.4285</v>
       </c>
       <c r="G130" t="n">
         <v>0.15</v>
@@ -3837,16 +3837,16 @@
         <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D131" t="n">
-        <v>0.11507</v>
+        <v>0.1109</v>
       </c>
       <c r="E131" t="n">
-        <v>0.01438</v>
+        <v>0.01386</v>
       </c>
       <c r="F131" t="n">
-        <v>1.9243</v>
+        <v>2.749</v>
       </c>
       <c r="G131" t="n">
         <v>0.15</v>
@@ -3863,16 +3863,16 @@
         <v>1</v>
       </c>
       <c r="C132" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D132" t="n">
-        <v>0.08848</v>
+        <v>0.11786</v>
       </c>
       <c r="E132" t="n">
-        <v>0.01106</v>
+        <v>0.01473</v>
       </c>
       <c r="F132" t="n">
-        <v>2.2597</v>
+        <v>3.70019</v>
       </c>
       <c r="G132" t="n">
         <v>0.15</v>
@@ -3892,13 +3892,13 @@
         <v>9</v>
       </c>
       <c r="D133" t="n">
-        <v>0.07124999999999999</v>
+        <v>0.10993</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00891</v>
+        <v>0.01374</v>
       </c>
       <c r="F133" t="n">
-        <v>1.37204</v>
+        <v>2.24366</v>
       </c>
       <c r="G133" t="n">
         <v>0.15</v>
@@ -3915,16 +3915,16 @@
         <v>1</v>
       </c>
       <c r="C134" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D134" t="n">
-        <v>0.08203000000000001</v>
+        <v>0.15159</v>
       </c>
       <c r="E134" t="n">
-        <v>0.01025</v>
+        <v>0.01895</v>
       </c>
       <c r="F134" t="n">
-        <v>2.50768</v>
+        <v>3.16337</v>
       </c>
       <c r="G134" t="n">
         <v>0.15</v>
@@ -3941,16 +3941,16 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D135" t="n">
-        <v>0.10761</v>
+        <v>0.14131</v>
       </c>
       <c r="E135" t="n">
-        <v>0.01345</v>
+        <v>0.01766</v>
       </c>
       <c r="F135" t="n">
-        <v>1.34969</v>
+        <v>2.87682</v>
       </c>
       <c r="G135" t="n">
         <v>0.15</v>
@@ -3967,16 +3967,16 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D136" t="n">
-        <v>0.09016</v>
+        <v>0.09195</v>
       </c>
       <c r="E136" t="n">
-        <v>0.01127</v>
+        <v>0.01149</v>
       </c>
       <c r="F136" t="n">
-        <v>1.63014</v>
+        <v>2.45163</v>
       </c>
       <c r="G136" t="n">
         <v>0.15</v>
@@ -3993,16 +3993,16 @@
         <v>1</v>
       </c>
       <c r="C137" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0365</v>
+        <v>0.12475</v>
       </c>
       <c r="E137" t="n">
-        <v>0.00456</v>
+        <v>0.01559</v>
       </c>
       <c r="F137" t="n">
-        <v>1.2642</v>
+        <v>2.14593</v>
       </c>
       <c r="G137" t="n">
         <v>0.15</v>
@@ -4019,16 +4019,16 @@
         <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D138" t="n">
-        <v>0.06617000000000001</v>
+        <v>0.09231</v>
       </c>
       <c r="E138" t="n">
-        <v>0.00827</v>
+        <v>0.01154</v>
       </c>
       <c r="F138" t="n">
-        <v>1.48939</v>
+        <v>2.98046</v>
       </c>
       <c r="G138" t="n">
         <v>0.15</v>
@@ -4045,16 +4045,16 @@
         <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D139" t="n">
-        <v>0.05503</v>
+        <v>0.0619</v>
       </c>
       <c r="E139" t="n">
-        <v>0.00688</v>
+        <v>0.00774</v>
       </c>
       <c r="F139" t="n">
-        <v>1.75344</v>
+        <v>1.9838</v>
       </c>
       <c r="G139" t="n">
         <v>0.15</v>
@@ -4071,16 +4071,16 @@
         <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D140" t="n">
-        <v>0.06934999999999999</v>
+        <v>0.05621</v>
       </c>
       <c r="E140" t="n">
-        <v>0.008670000000000001</v>
+        <v>0.00703</v>
       </c>
       <c r="F140" t="n">
-        <v>2.06507</v>
+        <v>1.27668</v>
       </c>
       <c r="G140" t="n">
         <v>0.15</v>
@@ -4097,16 +4097,16 @@
         <v>1</v>
       </c>
       <c r="C141" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D141" t="n">
-        <v>0.06827</v>
+        <v>0.0839</v>
       </c>
       <c r="E141" t="n">
-        <v>0.008529999999999999</v>
+        <v>0.01049</v>
       </c>
       <c r="F141" t="n">
-        <v>1.63966</v>
+        <v>1.5954</v>
       </c>
       <c r="G141" t="n">
         <v>0.15</v>
@@ -4123,16 +4123,16 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D142" t="n">
-        <v>0.02033</v>
+        <v>0.02221</v>
       </c>
       <c r="E142" t="n">
-        <v>0.00254</v>
+        <v>0.00278</v>
       </c>
       <c r="F142" t="n">
-        <v>1.27299</v>
+        <v>1.10138</v>
       </c>
       <c r="G142" t="n">
         <v>0.85</v>
@@ -4149,16 +4149,16 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D143" t="n">
-        <v>0.05121</v>
+        <v>0.051</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0064</v>
+        <v>0.00637</v>
       </c>
       <c r="F143" t="n">
-        <v>1.61539</v>
+        <v>1.89497</v>
       </c>
       <c r="G143" t="n">
         <v>0.85</v>
@@ -4175,16 +4175,16 @@
         <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D144" t="n">
-        <v>0.02025</v>
+        <v>0.08799</v>
       </c>
       <c r="E144" t="n">
-        <v>0.00253</v>
+        <v>0.011</v>
       </c>
       <c r="F144" t="n">
-        <v>1.16818</v>
+        <v>2.30865</v>
       </c>
       <c r="G144" t="n">
         <v>0.85</v>
@@ -4201,16 +4201,16 @@
         <v>1</v>
       </c>
       <c r="C145" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D145" t="n">
-        <v>0.05937</v>
+        <v>0.05266</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00742</v>
+        <v>0.00658</v>
       </c>
       <c r="F145" t="n">
-        <v>1.88008</v>
+        <v>1.56031</v>
       </c>
       <c r="G145" t="n">
         <v>0.85</v>
@@ -4227,16 +4227,16 @@
         <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D146" t="n">
-        <v>0.03474</v>
+        <v>0.03654</v>
       </c>
       <c r="E146" t="n">
-        <v>0.00434</v>
+        <v>0.00457</v>
       </c>
       <c r="F146" t="n">
-        <v>1.28003</v>
+        <v>1.73966</v>
       </c>
       <c r="G146" t="n">
         <v>0.85</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="D147" t="n">
-        <v>0.055</v>
+        <v>0.05716</v>
       </c>
       <c r="E147" t="n">
-        <v>0.00688</v>
+        <v>0.00715</v>
       </c>
       <c r="F147" t="n">
-        <v>2.42195</v>
+        <v>1.43235</v>
       </c>
       <c r="G147" t="n">
         <v>0.85</v>
@@ -4279,16 +4279,16 @@
         <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D148" t="n">
-        <v>0.05943</v>
+        <v>0.08526</v>
       </c>
       <c r="E148" t="n">
-        <v>0.00743</v>
+        <v>0.01066</v>
       </c>
       <c r="F148" t="n">
-        <v>2.16975</v>
+        <v>2.73688</v>
       </c>
       <c r="G148" t="n">
         <v>0.85</v>
@@ -4305,16 +4305,16 @@
         <v>1</v>
       </c>
       <c r="C149" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D149" t="n">
-        <v>0.03552</v>
+        <v>0.04284</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00444</v>
+        <v>0.00535</v>
       </c>
       <c r="F149" t="n">
-        <v>1.36743</v>
+        <v>1.93147</v>
       </c>
       <c r="G149" t="n">
         <v>0.85</v>
@@ -4331,16 +4331,16 @@
         <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02829</v>
+        <v>0.04938</v>
       </c>
       <c r="E150" t="n">
-        <v>0.00354</v>
+        <v>0.00617</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9862300000000001</v>
+        <v>1.57864</v>
       </c>
       <c r="G150" t="n">
         <v>0.85</v>
@@ -4357,16 +4357,16 @@
         <v>1</v>
       </c>
       <c r="C151" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>0.03244</v>
+        <v>0.05291</v>
       </c>
       <c r="E151" t="n">
-        <v>0.00406</v>
+        <v>0.00661</v>
       </c>
       <c r="F151" t="n">
-        <v>1.19698</v>
+        <v>1.56629</v>
       </c>
       <c r="G151" t="n">
         <v>0.85</v>
@@ -4383,16 +4383,16 @@
         <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D152" t="n">
-        <v>0.04207</v>
+        <v>0.04611</v>
       </c>
       <c r="E152" t="n">
-        <v>0.00526</v>
+        <v>0.00576</v>
       </c>
       <c r="F152" t="n">
-        <v>1.55603</v>
+        <v>1.66189</v>
       </c>
       <c r="G152" t="n">
         <v>0.85</v>
@@ -4409,16 +4409,16 @@
         <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D153" t="n">
-        <v>0.04551</v>
+        <v>0.0224</v>
       </c>
       <c r="E153" t="n">
-        <v>0.00569</v>
+        <v>0.0028</v>
       </c>
       <c r="F153" t="n">
-        <v>1.92517</v>
+        <v>1.09475</v>
       </c>
       <c r="G153" t="n">
         <v>0.85</v>
@@ -4435,16 +4435,16 @@
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03221</v>
+        <v>0.07274</v>
       </c>
       <c r="E154" t="n">
-        <v>0.00403</v>
+        <v>0.009090000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>1.43286</v>
+        <v>1.44899</v>
       </c>
       <c r="G154" t="n">
         <v>0.85</v>
@@ -4461,16 +4461,16 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D155" t="n">
-        <v>0.04503</v>
+        <v>0.05599</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00563</v>
+        <v>0.007</v>
       </c>
       <c r="F155" t="n">
-        <v>1.44423</v>
+        <v>1.55463</v>
       </c>
       <c r="G155" t="n">
         <v>0.85</v>
@@ -4487,16 +4487,16 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D156" t="n">
-        <v>0.08971999999999999</v>
+        <v>0.02854</v>
       </c>
       <c r="E156" t="n">
-        <v>0.01121</v>
+        <v>0.00357</v>
       </c>
       <c r="F156" t="n">
-        <v>2.1022</v>
+        <v>1.09859</v>
       </c>
       <c r="G156" t="n">
         <v>0.85</v>
@@ -4513,16 +4513,16 @@
         <v>1</v>
       </c>
       <c r="C157" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D157" t="n">
-        <v>0.05146</v>
+        <v>0.04622</v>
       </c>
       <c r="E157" t="n">
-        <v>0.00643</v>
+        <v>0.00578</v>
       </c>
       <c r="F157" t="n">
-        <v>1.6885</v>
+        <v>2.1406</v>
       </c>
       <c r="G157" t="n">
         <v>0.85</v>
@@ -4542,13 +4542,13 @@
         <v>12</v>
       </c>
       <c r="D158" t="n">
-        <v>0.05053</v>
+        <v>0.08101</v>
       </c>
       <c r="E158" t="n">
-        <v>0.00632</v>
+        <v>0.01013</v>
       </c>
       <c r="F158" t="n">
-        <v>1.96955</v>
+        <v>1.8917</v>
       </c>
       <c r="G158" t="n">
         <v>0.85</v>
@@ -4565,16 +4565,16 @@
         <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D159" t="n">
-        <v>0.07530000000000001</v>
+        <v>0.06347999999999999</v>
       </c>
       <c r="E159" t="n">
-        <v>0.00941</v>
+        <v>0.007939999999999999</v>
       </c>
       <c r="F159" t="n">
-        <v>2.03622</v>
+        <v>2.42641</v>
       </c>
       <c r="G159" t="n">
         <v>0.85</v>
@@ -4594,13 +4594,13 @@
         <v>15</v>
       </c>
       <c r="D160" t="n">
-        <v>0.02871</v>
+        <v>0.06202</v>
       </c>
       <c r="E160" t="n">
-        <v>0.00359</v>
+        <v>0.00775</v>
       </c>
       <c r="F160" t="n">
-        <v>1.19487</v>
+        <v>2.2753</v>
       </c>
       <c r="G160" t="n">
         <v>0.85</v>
@@ -4617,16 +4617,16 @@
         <v>1</v>
       </c>
       <c r="C161" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D161" t="n">
-        <v>0.04775</v>
+        <v>0.07482</v>
       </c>
       <c r="E161" t="n">
-        <v>0.00597</v>
+        <v>0.009350000000000001</v>
       </c>
       <c r="F161" t="n">
-        <v>1.24873</v>
+        <v>3.14101</v>
       </c>
       <c r="G161" t="n">
         <v>0.85</v>
@@ -4643,16 +4643,16 @@
         <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D162" t="n">
-        <v>0.02575</v>
+        <v>0.03889</v>
       </c>
       <c r="E162" t="n">
-        <v>0.00258</v>
+        <v>0.00389</v>
       </c>
       <c r="F162" t="n">
-        <v>1.25295</v>
+        <v>1.49085</v>
       </c>
       <c r="G162" t="n">
         <v>0.85</v>
@@ -4669,16 +4669,16 @@
         <v>1</v>
       </c>
       <c r="C163" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D163" t="n">
-        <v>0.09455</v>
+        <v>0.04244</v>
       </c>
       <c r="E163" t="n">
-        <v>0.00945</v>
+        <v>0.00424</v>
       </c>
       <c r="F163" t="n">
-        <v>2.16815</v>
+        <v>1.419</v>
       </c>
       <c r="G163" t="n">
         <v>0.85</v>
@@ -4695,16 +4695,16 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07148</v>
+        <v>0.03411</v>
       </c>
       <c r="E164" t="n">
-        <v>0.00715</v>
+        <v>0.00341</v>
       </c>
       <c r="F164" t="n">
-        <v>1.79914</v>
+        <v>1.0643</v>
       </c>
       <c r="G164" t="n">
         <v>0.85</v>
@@ -4721,16 +4721,16 @@
         <v>1</v>
       </c>
       <c r="C165" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>0.02958</v>
+        <v>0.02476</v>
       </c>
       <c r="E165" t="n">
-        <v>0.00296</v>
+        <v>0.00248</v>
       </c>
       <c r="F165" t="n">
-        <v>1.41282</v>
+        <v>0.89037</v>
       </c>
       <c r="G165" t="n">
         <v>0.85</v>
@@ -4747,16 +4747,16 @@
         <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D166" t="n">
-        <v>0.03916</v>
+        <v>0.05855</v>
       </c>
       <c r="E166" t="n">
-        <v>0.00392</v>
+        <v>0.00586</v>
       </c>
       <c r="F166" t="n">
-        <v>1.3203</v>
+        <v>1.48252</v>
       </c>
       <c r="G166" t="n">
         <v>0.85</v>
@@ -4773,16 +4773,16 @@
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D167" t="n">
-        <v>0.04429</v>
+        <v>0.0317</v>
       </c>
       <c r="E167" t="n">
-        <v>0.00443</v>
+        <v>0.00317</v>
       </c>
       <c r="F167" t="n">
-        <v>1.54936</v>
+        <v>1.60013</v>
       </c>
       <c r="G167" t="n">
         <v>0.85</v>
@@ -4799,16 +4799,16 @@
         <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09161999999999999</v>
+        <v>0.0697</v>
       </c>
       <c r="E168" t="n">
-        <v>0.00916</v>
+        <v>0.00697</v>
       </c>
       <c r="F168" t="n">
-        <v>2.35725</v>
+        <v>2.65344</v>
       </c>
       <c r="G168" t="n">
         <v>0.85</v>
@@ -4825,16 +4825,16 @@
         <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D169" t="n">
-        <v>0.09349</v>
+        <v>0.04592</v>
       </c>
       <c r="E169" t="n">
-        <v>0.009350000000000001</v>
+        <v>0.00459</v>
       </c>
       <c r="F169" t="n">
-        <v>1.95859</v>
+        <v>1.36464</v>
       </c>
       <c r="G169" t="n">
         <v>0.85</v>
@@ -4851,16 +4851,16 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D170" t="n">
-        <v>0.02861</v>
+        <v>0.03307</v>
       </c>
       <c r="E170" t="n">
-        <v>0.00286</v>
+        <v>0.00331</v>
       </c>
       <c r="F170" t="n">
-        <v>2.25812</v>
+        <v>1.05577</v>
       </c>
       <c r="G170" t="n">
         <v>0.85</v>
@@ -4877,16 +4877,16 @@
         <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D171" t="n">
-        <v>0.07335999999999999</v>
+        <v>0.04697</v>
       </c>
       <c r="E171" t="n">
-        <v>0.00734</v>
+        <v>0.0047</v>
       </c>
       <c r="F171" t="n">
-        <v>1.86717</v>
+        <v>1.51308</v>
       </c>
       <c r="G171" t="n">
         <v>0.85</v>
@@ -4903,16 +4903,16 @@
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D172" t="n">
-        <v>0.02144</v>
+        <v>0.06954</v>
       </c>
       <c r="E172" t="n">
-        <v>0.00214</v>
+        <v>0.00695</v>
       </c>
       <c r="F172" t="n">
-        <v>1.80667</v>
+        <v>2.24835</v>
       </c>
       <c r="G172" t="n">
         <v>0.85</v>
@@ -4929,16 +4929,16 @@
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08597</v>
+        <v>0.07087</v>
       </c>
       <c r="E173" t="n">
-        <v>0.0086</v>
+        <v>0.00709</v>
       </c>
       <c r="F173" t="n">
-        <v>2.2379</v>
+        <v>1.67198</v>
       </c>
       <c r="G173" t="n">
         <v>0.85</v>
@@ -4955,16 +4955,16 @@
         <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D174" t="n">
-        <v>0.09204</v>
+        <v>0.05233</v>
       </c>
       <c r="E174" t="n">
-        <v>0.0092</v>
+        <v>0.00523</v>
       </c>
       <c r="F174" t="n">
-        <v>2.59273</v>
+        <v>1.24743</v>
       </c>
       <c r="G174" t="n">
         <v>0.85</v>
@@ -4981,16 +4981,16 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D175" t="n">
-        <v>0.03513</v>
+        <v>0.07761</v>
       </c>
       <c r="E175" t="n">
-        <v>0.00351</v>
+        <v>0.00776</v>
       </c>
       <c r="F175" t="n">
-        <v>1.684</v>
+        <v>2.05696</v>
       </c>
       <c r="G175" t="n">
         <v>0.85</v>
@@ -5007,16 +5007,16 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05057</v>
+        <v>0.08212999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>0.00506</v>
+        <v>0.00821</v>
       </c>
       <c r="F176" t="n">
-        <v>1.6654</v>
+        <v>2.15875</v>
       </c>
       <c r="G176" t="n">
         <v>0.85</v>
@@ -5036,13 +5036,13 @@
         <v>10</v>
       </c>
       <c r="D177" t="n">
-        <v>0.08663</v>
+        <v>0.06834999999999999</v>
       </c>
       <c r="E177" t="n">
-        <v>0.008659999999999999</v>
+        <v>0.00683</v>
       </c>
       <c r="F177" t="n">
-        <v>1.85338</v>
+        <v>1.65897</v>
       </c>
       <c r="G177" t="n">
         <v>0.85</v>
@@ -5059,16 +5059,16 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D178" t="n">
-        <v>0.07127</v>
+        <v>0.03723</v>
       </c>
       <c r="E178" t="n">
-        <v>0.00713</v>
+        <v>0.00372</v>
       </c>
       <c r="F178" t="n">
-        <v>1.95108</v>
+        <v>1.45716</v>
       </c>
       <c r="G178" t="n">
         <v>0.85</v>
@@ -5085,16 +5085,16 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04889</v>
+        <v>0.01876</v>
       </c>
       <c r="E179" t="n">
-        <v>0.00489</v>
+        <v>0.00188</v>
       </c>
       <c r="F179" t="n">
-        <v>1.40317</v>
+        <v>1.25039</v>
       </c>
       <c r="G179" t="n">
         <v>0.85</v>
@@ -5111,16 +5111,16 @@
         <v>1</v>
       </c>
       <c r="C180" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04248</v>
+        <v>0.02826</v>
       </c>
       <c r="E180" t="n">
-        <v>0.00425</v>
+        <v>0.00283</v>
       </c>
       <c r="F180" t="n">
-        <v>2.29083</v>
+        <v>1.28788</v>
       </c>
       <c r="G180" t="n">
         <v>0.85</v>
@@ -5137,16 +5137,16 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D181" t="n">
-        <v>0.04026</v>
+        <v>0.03786</v>
       </c>
       <c r="E181" t="n">
-        <v>0.00403</v>
+        <v>0.00379</v>
       </c>
       <c r="F181" t="n">
-        <v>1.96368</v>
+        <v>1.03481</v>
       </c>
       <c r="G181" t="n">
         <v>0.85</v>
@@ -5163,16 +5163,16 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D182" t="n">
-        <v>0.04917</v>
+        <v>0.08935999999999999</v>
       </c>
       <c r="E182" t="n">
-        <v>0.00492</v>
+        <v>0.00894</v>
       </c>
       <c r="F182" t="n">
-        <v>1.81532</v>
+        <v>2.02712</v>
       </c>
       <c r="G182" t="n">
         <v>0.15</v>
@@ -5189,16 +5189,16 @@
         <v>1</v>
       </c>
       <c r="C183" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D183" t="n">
-        <v>0.14104</v>
+        <v>0.13227</v>
       </c>
       <c r="E183" t="n">
-        <v>0.0141</v>
+        <v>0.01323</v>
       </c>
       <c r="F183" t="n">
-        <v>1.83777</v>
+        <v>1.44345</v>
       </c>
       <c r="G183" t="n">
         <v>0.15</v>
@@ -5215,16 +5215,16 @@
         <v>1</v>
       </c>
       <c r="C184" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>0.16314</v>
+        <v>0.17019</v>
       </c>
       <c r="E184" t="n">
-        <v>0.01631</v>
+        <v>0.01702</v>
       </c>
       <c r="F184" t="n">
-        <v>3.74646</v>
+        <v>3.07348</v>
       </c>
       <c r="G184" t="n">
         <v>0.15</v>
@@ -5241,16 +5241,16 @@
         <v>1</v>
       </c>
       <c r="C185" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>0.16324</v>
+        <v>0.23902</v>
       </c>
       <c r="E185" t="n">
-        <v>0.01632</v>
+        <v>0.0239</v>
       </c>
       <c r="F185" t="n">
-        <v>3.01056</v>
+        <v>2.36392</v>
       </c>
       <c r="G185" t="n">
         <v>0.15</v>
@@ -5267,16 +5267,16 @@
         <v>1</v>
       </c>
       <c r="C186" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
-        <v>0.08774999999999999</v>
+        <v>0.15722</v>
       </c>
       <c r="E186" t="n">
-        <v>0.00877</v>
+        <v>0.01572</v>
       </c>
       <c r="F186" t="n">
-        <v>3.04027</v>
+        <v>4.18392</v>
       </c>
       <c r="G186" t="n">
         <v>0.15</v>
@@ -5293,16 +5293,16 @@
         <v>1</v>
       </c>
       <c r="C187" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D187" t="n">
-        <v>0.16022</v>
+        <v>0.1544</v>
       </c>
       <c r="E187" t="n">
-        <v>0.01602</v>
+        <v>0.01544</v>
       </c>
       <c r="F187" t="n">
-        <v>2.15619</v>
+        <v>3.49882</v>
       </c>
       <c r="G187" t="n">
         <v>0.15</v>
@@ -5319,16 +5319,16 @@
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D188" t="n">
-        <v>0.05345</v>
+        <v>0.07453</v>
       </c>
       <c r="E188" t="n">
-        <v>0.00534</v>
+        <v>0.00745</v>
       </c>
       <c r="F188" t="n">
-        <v>1.72181</v>
+        <v>1.63236</v>
       </c>
       <c r="G188" t="n">
         <v>0.15</v>
@@ -5345,16 +5345,16 @@
         <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D189" t="n">
-        <v>0.18488</v>
+        <v>0.10112</v>
       </c>
       <c r="E189" t="n">
-        <v>0.01849</v>
+        <v>0.01011</v>
       </c>
       <c r="F189" t="n">
-        <v>2.38211</v>
+        <v>1.64601</v>
       </c>
       <c r="G189" t="n">
         <v>0.15</v>
@@ -5371,16 +5371,16 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.19446</v>
+        <v>0.12615</v>
       </c>
       <c r="E190" t="n">
-        <v>0.01945</v>
+        <v>0.01261</v>
       </c>
       <c r="F190" t="n">
-        <v>2.87012</v>
+        <v>2.74871</v>
       </c>
       <c r="G190" t="n">
         <v>0.15</v>
@@ -5397,16 +5397,16 @@
         <v>1</v>
       </c>
       <c r="C191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="n">
-        <v>0.13228</v>
+        <v>0.21194</v>
       </c>
       <c r="E191" t="n">
-        <v>0.01323</v>
+        <v>0.02119</v>
       </c>
       <c r="F191" t="n">
-        <v>2.25067</v>
+        <v>3.74817</v>
       </c>
       <c r="G191" t="n">
         <v>0.15</v>
@@ -5423,16 +5423,16 @@
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>0.22818</v>
+        <v>0.14649</v>
       </c>
       <c r="E192" t="n">
-        <v>0.02282</v>
+        <v>0.01465</v>
       </c>
       <c r="F192" t="n">
-        <v>3.1491</v>
+        <v>1.90456</v>
       </c>
       <c r="G192" t="n">
         <v>0.15</v>
@@ -5449,16 +5449,16 @@
         <v>1</v>
       </c>
       <c r="C193" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>0.06322</v>
+        <v>0.05683</v>
       </c>
       <c r="E193" t="n">
-        <v>0.00632</v>
+        <v>0.00568</v>
       </c>
       <c r="F193" t="n">
-        <v>1.55349</v>
+        <v>1.5437</v>
       </c>
       <c r="G193" t="n">
         <v>0.15</v>
@@ -5475,16 +5475,16 @@
         <v>1</v>
       </c>
       <c r="C194" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>0.1759</v>
+        <v>0.08541</v>
       </c>
       <c r="E194" t="n">
-        <v>0.01759</v>
+        <v>0.008540000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>1.63286</v>
+        <v>2.02189</v>
       </c>
       <c r="G194" t="n">
         <v>0.15</v>
@@ -5501,16 +5501,16 @@
         <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D195" t="n">
-        <v>0.13368</v>
+        <v>0.11424</v>
       </c>
       <c r="E195" t="n">
-        <v>0.01337</v>
+        <v>0.01142</v>
       </c>
       <c r="F195" t="n">
-        <v>2.29527</v>
+        <v>2.4493</v>
       </c>
       <c r="G195" t="n">
         <v>0.15</v>
@@ -5527,16 +5527,16 @@
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0706</v>
+        <v>0.14882</v>
       </c>
       <c r="E196" t="n">
-        <v>0.00706</v>
+        <v>0.01488</v>
       </c>
       <c r="F196" t="n">
-        <v>2.247</v>
+        <v>2.70035</v>
       </c>
       <c r="G196" t="n">
         <v>0.15</v>
@@ -5553,16 +5553,16 @@
         <v>1</v>
       </c>
       <c r="C197" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D197" t="n">
-        <v>0.06444</v>
+        <v>0.11506</v>
       </c>
       <c r="E197" t="n">
-        <v>0.00644</v>
+        <v>0.01151</v>
       </c>
       <c r="F197" t="n">
-        <v>2.36064</v>
+        <v>3.46807</v>
       </c>
       <c r="G197" t="n">
         <v>0.15</v>
@@ -5579,16 +5579,16 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D198" t="n">
-        <v>0.11391</v>
+        <v>0.15337</v>
       </c>
       <c r="E198" t="n">
-        <v>0.01139</v>
+        <v>0.01534</v>
       </c>
       <c r="F198" t="n">
-        <v>1.73355</v>
+        <v>3.56844</v>
       </c>
       <c r="G198" t="n">
         <v>0.15</v>
@@ -5605,16 +5605,16 @@
         <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>0.10773</v>
+        <v>0.11769</v>
       </c>
       <c r="E199" t="n">
-        <v>0.01077</v>
+        <v>0.01177</v>
       </c>
       <c r="F199" t="n">
-        <v>1.54961</v>
+        <v>1.68499</v>
       </c>
       <c r="G199" t="n">
         <v>0.15</v>
@@ -5631,16 +5631,16 @@
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" t="n">
-        <v>0.05216</v>
+        <v>0.18898</v>
       </c>
       <c r="E200" t="n">
-        <v>0.00522</v>
+        <v>0.0189</v>
       </c>
       <c r="F200" t="n">
-        <v>2.01518</v>
+        <v>3.82086</v>
       </c>
       <c r="G200" t="n">
         <v>0.15</v>
@@ -5657,16 +5657,16 @@
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D201" t="n">
-        <v>0.04504</v>
+        <v>0.14111</v>
       </c>
       <c r="E201" t="n">
-        <v>0.0045</v>
+        <v>0.01411</v>
       </c>
       <c r="F201" t="n">
-        <v>1.52142</v>
+        <v>2.99101</v>
       </c>
       <c r="G201" t="n">
         <v>0.15</v>
